--- a/data/134/DEUSTATIS/old/Producer price index for industrial products - GP9 codes.xlsx
+++ b/data/134/DEUSTATIS/old/Producer price index for industrial products - GP9 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="71">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -226,7 +226,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:33:12</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:31:07</t>
   </si>
 </sst>
 </file>
@@ -13724,14 +13724,14 @@
       <c r="UD7" t="n" s="10">
         <v>113.7</v>
       </c>
-      <c r="UE7" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF7" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG7" t="s" s="10">
-        <v>66</v>
+      <c r="UE7" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="UF7" t="n" s="10">
+        <v>114.8</v>
+      </c>
+      <c r="UG7" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="UH7" t="s" s="10">
         <v>66</v>
@@ -15388,14 +15388,14 @@
       <c r="UD8" t="n" s="10">
         <v>106.1</v>
       </c>
-      <c r="UE8" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF8" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG8" t="s" s="10">
-        <v>66</v>
+      <c r="UE8" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="UF8" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="UG8" t="n" s="10">
+        <v>106.1</v>
       </c>
       <c r="UH8" t="s" s="10">
         <v>66</v>
@@ -15467,7 +15467,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:33:17&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:31:14&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>